--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45422.50605324074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45327</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45988</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45989.72583333333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44900</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45786.56075231481</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45915</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44998</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>45307</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45258</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44753</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>44623.60351851852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>44613</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>44879.30196759259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44239</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44518.65459490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44498.45975694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44631.45094907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44603</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>44565</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>44603</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44482.89006944445</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44508.6427662037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44879.3025462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44580</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44700.60278935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44237</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44550</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44496.92871527778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44239</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44517.5355787037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44679.64733796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44628</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44441.42619212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44386</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44888.50229166666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44250</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44466</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44771</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>44524</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44250</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44278</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>44714.64824074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44845</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>44552</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>45084.54755787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45716.46211805556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45057.59825231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44964</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>45259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44957.42422453704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45110.55721064815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>45769.58644675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45541</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>45434</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44855</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44719</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>45595</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45412</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44942</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>45398.61876157407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45001</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45736.58967592593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45230.35675925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45544</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44249.47738425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44396.47681712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44637</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45217</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>44738</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44355</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44992</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45775.46158564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45889.55912037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45888.44077546296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45810</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>45006</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45890.53728009259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>45475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>45770</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>45104</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45901.35317129629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45901.35763888889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44881</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45330.6340625</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>45901</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45796.39119212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45908.65194444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45908.39413194444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45036.63990740741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45912.4652199074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45915.6369675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45306</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45917.6000462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45917</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>45919</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44418.58430555555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45924.50216435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45925.46216435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45925.45918981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45925.45210648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45925.45548611111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>45099.48325231481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>45678.72246527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>45489.59614583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>45489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>44533</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44452.62667824074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>45637.49440972223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>45068</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>45931.66736111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>45930.67966435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>45931.67399305556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45931.66369212963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45932</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45932</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45840.60674768518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45937</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45841.50381944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45841.50966435186</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45840.60864583333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45938.46695601852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45938.47315972222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>45939.57327546296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45841.50859953704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44700.65034722222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45769.58104166666</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45774.36863425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>44992</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>45940.47883101852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>45712</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45945.60892361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45085</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45945</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45945.63202546296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45945.82383101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45946.389375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45840.35839120371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45639</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44249</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44701</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45953.37413194445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45953.43871527778</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45539.85185185185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45154</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45159</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45953.38699074074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45715</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45757.64601851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45954.51231481481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45954.4930787037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44972.40060185185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45070</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45078</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45673.71967592592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45698.47854166666</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45959.65025462963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44301</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45880</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45965.37271990741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45967</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45397</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45754</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44967</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45345</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44942</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45789.49032407408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45974.34738425926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45974</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44375</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>44823</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45992</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>45195</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45631.61699074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45978.45473379629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45981</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45419</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45982</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45307</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>44803.49041666667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44977.31280092592</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>45644</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>45685</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>45027</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>45988.68699074074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>46029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>45105</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>46037.33811342593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>46037.38101851852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44953</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45994.38554398148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45769.72369212963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>45610.43283564815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>45040</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>46043</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>45336.58576388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44550.71657407407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>45713</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45321</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45398.6153587963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>44953</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45772.6108912037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45533.890625</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>46008</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>45628.56390046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>46042</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>46053.37464120371</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>46055.655</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44865.37258101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45973</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44895.55646990741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>45757.64240740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>46014.35241898148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45420</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>46056.54129629629</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44973.65998842593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44973.67125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45581.42474537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44489</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44820.63084490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44881</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44573</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44614</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44386</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44386.48453703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45420.64155092592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44617.69141203703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45319.82532407407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45175.47060185186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45057.62520833333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44482.51827546296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45201</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44930.64086805555</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45552.37902777778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45685</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44298</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45408.48957175926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44693.49467592593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45335</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45140.38641203703</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45508</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45314</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44452.42856481481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45426.47565972222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45552.61659722222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45377.51591435185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45539</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45051.6136574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45757</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45425</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44417</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>45062</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>45261</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>45555.66824074074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44917.41598379629</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45595</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45327</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>45027.65725694445</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44395.50489583334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45215</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45769.584375</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45489.57371527778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45583.61962962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45379.51564814815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>45379.51759259259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45229</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45720.70534722223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45776.66296296296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>45776</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45772.61246527778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>45782</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45782</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>45495.59086805556</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45786.57684027778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>45789.43079861111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45553</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45439</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45114</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45552</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>45270.59327546296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>45793.36877314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45754</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45422.50605324074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45327</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44965</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45988</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45989.72583333333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44900</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45786.56075231481</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45915</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44998</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>45307</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45258</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44753</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>44623.60351851852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>44613</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>44879.30196759259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44239</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44518.65459490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44498.45975694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44631.45094907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44603</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>44565</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>44603</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44482.89006944445</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44508.6427662037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44879.3025462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44580</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44700.60278935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44237</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44550</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44496.92871527778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44239</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44517.5355787037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44679.64733796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44628</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44441.42619212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44386</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44888.50229166666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44250</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44466</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44771</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>44524</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44250</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44278</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>44714.64824074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44845</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>44552</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>45084.54755787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45716.46211805556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45057.59825231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44964</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>45259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44957.42422453704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45110.55721064815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>45769.58644675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45541</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>45434</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44855</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44719</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>45595</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45412</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44942</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>45398.61876157407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45001</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45736.58967592593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45230.35675925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45544</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44249.47738425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44396.47681712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44637</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45217</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>44738</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44355</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44992</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45775.46158564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45889.55912037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45888.44077546296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45810</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>45006</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45890.53728009259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>45475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>45770</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>45104</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45901.35317129629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45901.35763888889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44881</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45330.6340625</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>45901</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45796.39119212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45908.65194444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45908.39413194444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45036.63990740741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45912.4652199074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45915.6369675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45306</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45917.6000462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45917</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>45919</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44418.58430555555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45924.50216435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45925.46216435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45925.45918981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45925.45210648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>45925.45548611111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>45099.48325231481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>45678.72246527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>45489.59614583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>45489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>44533</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44452.62667824074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>45637.49440972223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>45068</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>45931.66736111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>45930.67966435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>45931.67399305556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45931.66369212963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45932</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45932</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45840.60674768518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45937</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45841.50381944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45841.50966435186</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45840.60864583333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45938.46695601852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45938.47315972222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>45939.57327546296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45841.50859953704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44700.65034722222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45769.58104166666</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45774.36863425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>44992</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>45940.47883101852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>45712</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45945.60892361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45085</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45945</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45945.63202546296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45945.82383101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45946.389375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45840.35839120371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45639</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44249</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44701</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45953.37413194445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45953.43871527778</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45539.85185185185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45154</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45159</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45953.38699074074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45715</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45757.64601851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45954.51231481481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45954.4930787037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44972.40060185185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45070</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45078</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45673.71967592592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45698.47854166666</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45959.65025462963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44301</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45880</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45965.37271990741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45967</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45397</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45754</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44967</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45345</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44942</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45789.49032407408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45974.34738425926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45974</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44375</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>44823</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45992</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>45195</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45631.61699074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45978.45473379629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45981</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45419</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45982</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45307</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>44803.49041666667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44977.31280092592</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>45644</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>45685</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>45027</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>45988.68699074074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>46029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>45105</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>46037.33811342593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>46037.38101851852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44953</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45994.38554398148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45769.72369212963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>45610.43283564815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>45040</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>46043</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>45336.58576388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44550.71657407407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>45713</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45321</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45398.6153587963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>44953</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45772.6108912037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45533.890625</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>46008</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>45628.56390046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>46042</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>46053.37464120371</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>46055.655</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44865.37258101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45973</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44895.55646990741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>45757.64240740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>46014.35241898148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45420</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45078</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>46056.54129629629</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44973.65998842593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44973.67125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45581.42474537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44489</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44820.63084490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44881</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44573</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44614</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44386</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44386.48453703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45420.64155092592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44617.69141203703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45319.82532407407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45175.47060185186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45057.62520833333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44482.51827546296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45201</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44930.64086805555</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45552.37902777778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45685</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44298</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45408.48957175926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44693.49467592593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45335</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45140.38641203703</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45508</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45314</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>44452.42856481481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45426.47565972222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45552.61659722222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45377.51591435185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45539</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45051.6136574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45757</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45425</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44417</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>45062</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>45261</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>45555.66824074074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44917.41598379629</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45595</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45327</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>45027.65725694445</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44395.50489583334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45215</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45769.584375</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45489.57371527778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45583.61962962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45379.51564814815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>45379.51759259259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45229</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45720.70534722223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45776.66296296296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>45776</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45772.61246527778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>45782</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45782</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>45495.59086805556</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45786.57684027778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>45789.43079861111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45553</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45439</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45114</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45552</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>45270.59327546296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>45793.36877314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45754</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z315"/>
+  <dimension ref="A1:Z314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 10480-2023</t>
+          <t>A 18316-2024</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44987</v>
+        <v>45422.50605324074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,94 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gransotdyna
+Bårdlav
+Kornig nållav
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 18316-2024 artfynd.xlsx", "A 18316-2024")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 18316-2024 karta.png", "A 18316-2024")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 18316-2024 FSC-klagomål.docx", "A 18316-2024")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 18316-2024 FSC-klagomål mail.docx", "A 18316-2024")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 18316-2024 tillsynsbegäran.docx", "A 18316-2024")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 18316-2024 tillsynsbegäran mail.docx", "A 18316-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 10480-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Svart trolldruva
 Underviol
@@ -628,87 +716,87 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 10480-2023 artfynd.xlsx", "A 10480-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 10480-2023 karta.png", "A 10480-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 10480-2023 FSC-klagomål.docx", "A 10480-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 10480-2023 FSC-klagomål mail.docx", "A 10480-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 10480-2023 tillsynsbegäran.docx", "A 10480-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 10480-2023 tillsynsbegäran mail.docx", "A 10480-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 38452-2023</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45162</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2.2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Ask
 Liten blekspik
@@ -716,119 +804,31 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 38452-2023 artfynd.xlsx", "A 38452-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 38452-2023 karta.png", "A 38452-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 38452-2023 FSC-klagomål.docx", "A 38452-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 38452-2023 FSC-klagomål mail.docx", "A 38452-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 38452-2023 tillsynsbegäran.docx", "A 38452-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 38452-2023 tillsynsbegäran mail.docx", "A 38452-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 18316-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45422.50605324074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Gransotdyna
-Bårdlav
-Kornig nållav
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 18316-2024 artfynd.xlsx", "A 18316-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 18316-2024 karta.png", "A 18316-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 18316-2024 FSC-klagomål.docx", "A 18316-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 18316-2024 FSC-klagomål mail.docx", "A 18316-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 18316-2024 tillsynsbegäran.docx", "A 18316-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 18316-2024 tillsynsbegäran mail.docx", "A 18316-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45327</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 6307-2023</t>
+          <t>A 22417-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44965</v>
+        <v>45786.56075231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1035,19 +1035,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1059,131 +1059,131 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Vätteros
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 22417-2025 artfynd.xlsx", "A 22417-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 22417-2025 karta.png", "A 22417-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 22417-2025 FSC-klagomål.docx", "A 22417-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 22417-2025 FSC-klagomål mail.docx", "A 22417-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 22417-2025 tillsynsbegäran.docx", "A 22417-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 22417-2025 tillsynsbegäran mail.docx", "A 22417-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 6307-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Liten hornflikmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 6307-2023 artfynd.xlsx", "A 6307-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 6307-2023 karta.png", "A 6307-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 6307-2023 FSC-klagomål.docx", "A 6307-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 6307-2023 FSC-klagomål mail.docx", "A 6307-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 6307-2023 tillsynsbegäran.docx", "A 6307-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 6307-2023 tillsynsbegäran mail.docx", "A 6307-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 29486-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45106</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Åkerrättika
-Klofibbla</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 29486-2023 artfynd.xlsx", "A 29486-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 29486-2023 karta.png", "A 29486-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 29486-2023 FSC-klagomål.docx", "A 29486-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 29486-2023 FSC-klagomål mail.docx", "A 29486-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 29486-2023 tillsynsbegäran.docx", "A 29486-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 29486-2023 tillsynsbegäran mail.docx", "A 29486-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45989.72583333333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,14 +1359,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 59543-2022</t>
+          <t>A 29486-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44900</v>
+        <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1379,155 +1379,155 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Åkerrättika
+Klofibbla</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 29486-2023 artfynd.xlsx", "A 29486-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 29486-2023 karta.png", "A 29486-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 29486-2023 FSC-klagomål.docx", "A 29486-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 29486-2023 FSC-klagomål mail.docx", "A 29486-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 29486-2023 tillsynsbegäran.docx", "A 29486-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 29486-2023 tillsynsbegäran mail.docx", "A 29486-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 59543-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Större vattensalamander
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 59543-2022 artfynd.xlsx", "A 59543-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 59543-2022 karta.png", "A 59543-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 59543-2022 FSC-klagomål.docx", "A 59543-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 59543-2022 FSC-klagomål mail.docx", "A 59543-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 59543-2022 tillsynsbegäran.docx", "A 59543-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 59543-2022 tillsynsbegäran mail.docx", "A 59543-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 22417-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45786.56075231481</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Vätteros
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 22417-2025 artfynd.xlsx", "A 22417-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 22417-2025 karta.png", "A 22417-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 22417-2025 FSC-klagomål.docx", "A 22417-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 22417-2025 FSC-klagomål mail.docx", "A 22417-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 22417-2025 tillsynsbegäran.docx", "A 22417-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 22417-2025 tillsynsbegäran mail.docx", "A 22417-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,14 +1616,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 44235-2025</t>
+          <t>A 60263-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45915</v>
+        <v>45258</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,11 +1635,16 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>21.9</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1660,315 +1665,310 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 60263-2023 artfynd.xlsx", "A 60263-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 60263-2023 karta.png", "A 60263-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 60263-2023 FSC-klagomål.docx", "A 60263-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 60263-2023 FSC-klagomål mail.docx", "A 60263-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 60263-2023 tillsynsbegäran.docx", "A 60263-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 60263-2023 tillsynsbegäran mail.docx", "A 60263-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 29382-2022</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 29382-2022 artfynd.xlsx", "A 29382-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 29382-2022 karta.png", "A 29382-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 29382-2022 FSC-klagomål.docx", "A 29382-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 29382-2022 FSC-klagomål mail.docx", "A 29382-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 29382-2022 tillsynsbegäran.docx", "A 29382-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 29382-2022 tillsynsbegäran mail.docx", "A 29382-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 44235-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45915</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 44235-2025 artfynd.xlsx", "A 44235-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 44235-2025 karta.png", "A 44235-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 44235-2025 FSC-klagomål.docx", "A 44235-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 44235-2025 FSC-klagomål mail.docx", "A 44235-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 44235-2025 tillsynsbegäran.docx", "A 44235-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 44235-2025 tillsynsbegäran mail.docx", "A 44235-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 20822-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45439</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>4.7</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Blomkålssvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 20822-2024 artfynd.xlsx", "A 20822-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 20822-2024 karta.png", "A 20822-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 20822-2024 FSC-klagomål.docx", "A 20822-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 20822-2024 FSC-klagomål mail.docx", "A 20822-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 20822-2024 tillsynsbegäran.docx", "A 20822-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 20822-2024 tillsynsbegäran mail.docx", "A 20822-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 1720-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45307</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ryl</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 1720-2024 artfynd.xlsx", "A 1720-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 1720-2024 karta.png", "A 1720-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 1720-2024 FSC-klagomål.docx", "A 1720-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 1720-2024 FSC-klagomål mail.docx", "A 1720-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 1720-2024 tillsynsbegäran.docx", "A 1720-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 1720-2024 tillsynsbegäran mail.docx", "A 1720-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 29382-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44753</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 29382-2022 artfynd.xlsx", "A 29382-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 29382-2022 karta.png", "A 29382-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 29382-2022 FSC-klagomål.docx", "A 29382-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 29382-2022 FSC-klagomål mail.docx", "A 29382-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 29382-2022 tillsynsbegäran.docx", "A 29382-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 29382-2022 tillsynsbegäran mail.docx", "A 29382-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 60263-2023</t>
+          <t>A 12437-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45258</v>
+        <v>44998</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1980,19 +1980,14 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>10.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,31 +2015,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 60263-2023 artfynd.xlsx", "A 60263-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 12437-2023 artfynd.xlsx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 60263-2023 karta.png", "A 60263-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 12437-2023 karta.png", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 60263-2023 FSC-klagomål.docx", "A 60263-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 12437-2023 FSC-klagomål.docx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 60263-2023 FSC-klagomål mail.docx", "A 60263-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 12437-2023 FSC-klagomål mail.docx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 60263-2023 tillsynsbegäran.docx", "A 60263-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 12437-2023 tillsynsbegäran.docx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 60263-2023 tillsynsbegäran mail.docx", "A 60263-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 12437-2023 tillsynsbegäran mail.docx", "A 12437-2023")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2053,7 @@
         <v>45509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2141,14 +2136,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 12437-2023</t>
+          <t>A 1720-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44998</v>
+        <v>45307</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2160,24 +2155,29 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>10.5</v>
+        <v>5.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -2185,41 +2185,41 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Ryl</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 12437-2023 artfynd.xlsx", "A 12437-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/artfynd/A 1720-2024 artfynd.xlsx", "A 1720-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 12437-2023 karta.png", "A 12437-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 1720-2024 karta.png", "A 1720-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 12437-2023 FSC-klagomål.docx", "A 12437-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 1720-2024 FSC-klagomål.docx", "A 1720-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 12437-2023 FSC-klagomål mail.docx", "A 12437-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 1720-2024 FSC-klagomål mail.docx", "A 1720-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 12437-2023 tillsynsbegäran.docx", "A 12437-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 1720-2024 tillsynsbegäran.docx", "A 1720-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 12437-2023 tillsynsbegäran mail.docx", "A 12437-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 1720-2024 tillsynsbegäran mail.docx", "A 1720-2024")</f>
         <v/>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>44623.60351851852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>44613</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>44879.30196759259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44239</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44518.65459490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44498.45975694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44631.45094907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44565</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>44603</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>44603</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44482.89006944445</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44508.6427662037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44879.3025462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44580</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44700.60278935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,14 +3433,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6956-2021</t>
+          <t>A 73243-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44237</v>
+        <v>44550</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3490,14 +3490,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 73243-2021</t>
+          <t>A 60762-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44550</v>
+        <v>44496.92871527778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3547,14 +3547,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60762-2021</t>
+          <t>A 7374-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44496.92871527778</v>
+        <v>44239</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3604,14 +3604,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7374-2021</t>
+          <t>A 65975-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44239</v>
+        <v>44517.5355787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,14 +3661,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 65975-2021</t>
+          <t>A 17549-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44517.5355787037</v>
+        <v>44679.64733796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3718,14 +3718,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17549-2022</t>
+          <t>A 32305-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44679.64733796296</v>
+        <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3737,8 +3737,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3775,14 +3780,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32305-2021</t>
+          <t>A 10985-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44371</v>
+        <v>44628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3796,11 +3801,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3837,14 +3842,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10985-2022</t>
+          <t>A 3985-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44628</v>
+        <v>44587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3856,13 +3861,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3899,14 +3899,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3985-2022</t>
+          <t>A 45745-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44587</v>
+        <v>44441.42619212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3956,14 +3956,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45745-2021</t>
+          <t>A 35694-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44441.42619212963</v>
+        <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4013,14 +4013,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35694-2021</t>
+          <t>A 55679-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44386</v>
+        <v>44888.50229166666</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4070,14 +4070,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 55679-2022</t>
+          <t>A 9240-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44888.50229166666</v>
+        <v>44250</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4127,14 +4127,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9240-2021</t>
+          <t>A 52531-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4184,14 +4184,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52531-2021</t>
+          <t>A 31232-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44466</v>
+        <v>44771</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4241,14 +4241,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31232-2022</t>
+          <t>A 67418-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44771</v>
+        <v>44524</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4298,14 +4298,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 67418-2021</t>
+          <t>A 9303-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44524</v>
+        <v>44250</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4355,14 +4355,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9303-2021</t>
+          <t>A 22726-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44250</v>
+        <v>44714.64824074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4412,14 +4412,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53489-2023</t>
+          <t>A 14342-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45230.35675925926</v>
+        <v>44278</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4469,14 +4469,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36215-2022</t>
+          <t>A 45575-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44803.49041666667</v>
+        <v>44845</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4526,14 +4526,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4563-2024</t>
+          <t>A 9750-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45327</v>
+        <v>45716.46211805556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4583,14 +4583,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59017-2021</t>
+          <t>A 4563-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44489</v>
+        <v>45327</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4640,14 +4640,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 54791-2023</t>
+          <t>A 73785-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45229</v>
+        <v>44552</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4659,8 +4659,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>14.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4697,14 +4702,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17280-2021</t>
+          <t>A 24708-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44298</v>
+        <v>45084.54755787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4717,7 +4722,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4754,14 +4759,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14286-2024</t>
+          <t>A 23031-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45393</v>
+        <v>44719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4773,8 +4778,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4811,14 +4821,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 54703-2022</t>
+          <t>A 16150-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44881</v>
+        <v>45027.65725694445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4830,8 +4840,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>6.1</v>
+        <v>12.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4868,14 +4883,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57038-2021</t>
+          <t>A 33508-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44482.51827546296</v>
+        <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4887,8 +4902,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4925,14 +4945,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 17149-2024</t>
+          <t>A 20549-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45412</v>
+        <v>45057.59825231481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4945,7 +4965,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4982,14 +5002,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24967-2023</t>
+          <t>A 37081-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45085</v>
+        <v>44395.50489583334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5001,13 +5021,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5044,14 +5059,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40212-2022</t>
+          <t>A 4668-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44820.63084490741</v>
+        <v>44957.42422453704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5063,8 +5078,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5101,14 +5121,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17963-2024</t>
+          <t>A 6043-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45419</v>
+        <v>44964</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5121,7 +5141,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5158,14 +5178,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28188-2021</t>
+          <t>A 60359-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44355</v>
+        <v>45259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5178,7 +5198,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5215,14 +5235,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18173-2023</t>
+          <t>A 18084-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45040</v>
+        <v>45420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5235,7 +5255,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5272,14 +5292,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12070-2024</t>
+          <t>A 39043-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45377.51591435185</v>
+        <v>45888</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5292,7 +5312,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.5</v>
+        <v>4.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5329,14 +5349,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37081-2021</t>
+          <t>A 30152-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44395.50489583334</v>
+        <v>45110.55721064815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5349,7 +5369,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5386,14 +5406,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37146-2021</t>
+          <t>A 50202-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44396.47681712963</v>
+        <v>45215</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,14 +5463,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18073-2024</t>
+          <t>A 39361-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45420</v>
+        <v>45889.55912037037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5463,7 +5483,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5500,14 +5520,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30152-2023</t>
+          <t>A 41411-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45110.55721064815</v>
+        <v>45901.35317129629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5520,7 +5540,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5557,14 +5577,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60359-2023</t>
+          <t>A 39047-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45259</v>
+        <v>45888.44077546296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5577,7 +5597,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5614,14 +5634,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4702-2023</t>
+          <t>A 19328-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44953</v>
+        <v>45769.584375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5634,7 +5654,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5671,14 +5691,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54750-2022</t>
+          <t>A 30138-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44881</v>
+        <v>45489.57371527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5690,8 +5710,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5728,14 +5753,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49958-2022</t>
+          <t>A 37753-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44865.37258101852</v>
+        <v>45541</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,14 +5810,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7950-2023</t>
+          <t>A 46854-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44973.67125</v>
+        <v>45583.61962962963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5804,13 +5829,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5847,14 +5867,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 70037-2021</t>
+          <t>A 12474-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44533</v>
+        <v>45379.51564814815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5887,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5904,14 +5924,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5213-2024</t>
+          <t>A 12476-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45330.6340625</v>
+        <v>45379.51759259259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5923,13 +5943,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5966,14 +5981,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35691-2021</t>
+          <t>A 39593-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44386</v>
+        <v>45890.53728009259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +6001,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6023,14 +6038,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35696-2021</t>
+          <t>A 41413-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44386.48453703704</v>
+        <v>45901.35763888889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6043,7 +6058,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6080,14 +6095,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37221-2024</t>
+          <t>A 19332-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45539.85185185185</v>
+        <v>45769.58644675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6115,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6137,14 +6152,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22404-2023</t>
+          <t>A 41501-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45070</v>
+        <v>45901</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6172,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6194,14 +6209,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 644-2023</t>
+          <t>A 32294-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44930.64086805555</v>
+        <v>44371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6213,8 +6228,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6251,14 +6271,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5066-2025</t>
+          <t>A 20134-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45691</v>
+        <v>45434</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6271,7 +6291,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6308,14 +6328,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18084-2024</t>
+          <t>A 23981-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45420</v>
+        <v>45796.39119212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6328,7 +6348,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6365,14 +6385,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30144-2024</t>
+          <t>A 54791-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45489.59614583333</v>
+        <v>45229</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6384,13 +6404,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6427,14 +6442,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30145-2024</t>
+          <t>A 10453-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45489</v>
+        <v>45720.70534722223</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6446,13 +6461,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6489,14 +6499,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18179-2024</t>
+          <t>A 20810-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45420.64155092592</v>
+        <v>45776.66296296296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,8 +6518,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>13.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6546,14 +6561,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 37160-2023</t>
+          <t>A 20625-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45154</v>
+        <v>45776</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6566,7 +6581,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6603,14 +6618,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22726-2022</t>
+          <t>A 42885-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44714.64824074074</v>
+        <v>45908.65194444444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6623,7 +6638,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6660,14 +6675,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20558-2023</t>
+          <t>A 20199-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45057.62520833333</v>
+        <v>45772.61246527778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6679,8 +6694,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6717,14 +6737,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 22671-2025</t>
+          <t>A 21459-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45789.49032407408</v>
+        <v>45782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6757,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6774,14 +6794,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 36998-2024</t>
+          <t>A 21351-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45539</v>
+        <v>45782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6794,7 +6814,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.3</v>
+        <v>11.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6831,14 +6851,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39047-2025</t>
+          <t>A 42719-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45888.44077546296</v>
+        <v>45908.39413194444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6851,7 +6871,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6888,14 +6908,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46127-2024</t>
+          <t>A 47902-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45581.42474537037</v>
+        <v>44855</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6908,7 +6928,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6945,14 +6965,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39043-2025</t>
+          <t>A 30647-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45888</v>
+        <v>45495.59086805556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6965,7 +6985,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7002,14 +7022,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14825-2024</t>
+          <t>A 37703-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45397</v>
+        <v>45159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7022,7 +7042,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>9.4</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7059,14 +7079,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14920-2024</t>
+          <t>A 22430-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45398.6153587963</v>
+        <v>45786.57684027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7079,7 +7099,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7116,14 +7136,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21319-2023</t>
+          <t>A 22620-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45062</v>
+        <v>45789.43079861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7136,7 +7156,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7173,14 +7193,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39593-2025</t>
+          <t>A 39976-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45890.53728009259</v>
+        <v>45553</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7193,7 +7213,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7230,14 +7250,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39361-2025</t>
+          <t>A 23033-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45889.55912037037</v>
+        <v>44719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7249,8 +7269,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7287,14 +7312,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33203-2025</t>
+          <t>A 17149-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45840.60864583333</v>
+        <v>45412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7307,7 +7332,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7344,14 +7369,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33201-2025</t>
+          <t>A 2375-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45840.60674768518</v>
+        <v>44942</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7363,8 +7388,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7401,14 +7431,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20134-2024</t>
+          <t>A 14923-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45434</v>
+        <v>45398.61876157407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7421,7 +7451,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7458,14 +7488,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57130-2022</t>
+          <t>A 20990-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44895.55646990741</v>
+        <v>45439</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7478,7 +7508,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7515,14 +7545,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18496-2024</t>
+          <t>A 49256-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45425</v>
+        <v>45595</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7535,7 +7565,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7572,14 +7602,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3421-2024</t>
+          <t>A 12885-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45319.82532407407</v>
+        <v>45001</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7592,7 +7622,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7629,14 +7659,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19323-2025</t>
+          <t>A 33213-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45769.58104166666</v>
+        <v>45114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7649,7 +7679,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7686,14 +7716,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 20278-2025</t>
+          <t>A 39648-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45774.36863425926</v>
+        <v>45552</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7743,14 +7773,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 13624-2023</t>
+          <t>A 62578-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45006</v>
+        <v>45270.59327546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7763,7 +7793,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7800,14 +7830,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41501-2025</t>
+          <t>A 53489-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45901</v>
+        <v>45230.35675925926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7820,7 +7850,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7857,14 +7887,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41413-2025</t>
+          <t>A 43749-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45901.35763888889</v>
+        <v>45912.4652199074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7877,7 +7907,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7914,14 +7944,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41411-2025</t>
+          <t>A 44221-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45901.35317129629</v>
+        <v>45915.6369675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7934,7 +7964,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7971,14 +8001,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 40098-2021</t>
+          <t>A 8978-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44418.58430555555</v>
+        <v>44249.47738425926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7990,8 +8020,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8028,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6919-2023</t>
+          <t>A 37146-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44967</v>
+        <v>44396.47681712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8048,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8085,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33006-2025</t>
+          <t>A 44698-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45840.35839120371</v>
+        <v>45917.6000462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8105,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8142,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 23981-2025</t>
+          <t>A 23705-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45796.39119212963</v>
+        <v>45793.36877314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8161,8 +8196,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>13.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8199,14 +8239,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61017-2024</t>
+          <t>A 12214-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45644</v>
+        <v>44637</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8218,8 +8258,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>12.1</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8256,14 +8301,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42885-2025</t>
+          <t>A 50634-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45908.65194444444</v>
+        <v>45217</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8276,7 +8321,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8313,14 +8358,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42719-2025</t>
+          <t>A 26449-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45908.39413194444</v>
+        <v>44738</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8333,7 +8378,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8370,14 +8415,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8351-2023</t>
+          <t>A 44723-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44977</v>
+        <v>45917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8390,7 +8435,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8427,14 +8472,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2365-2025</t>
+          <t>A 17077-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45673.71967592592</v>
+        <v>45754</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8447,7 +8492,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8484,14 +8529,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43749-2025</t>
+          <t>A 44235-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45912.4652199074</v>
+        <v>45915</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8504,7 +8549,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8537,18 +8582,38 @@
         <v>0</v>
       </c>
       <c r="R130" s="2" t="inlineStr"/>
+      <c r="T130">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 44235-2025 karta.png", "A 44235-2025")</f>
+        <v/>
+      </c>
+      <c r="V130">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 44235-2025 FSC-klagomål.docx", "A 44235-2025")</f>
+        <v/>
+      </c>
+      <c r="W130">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 44235-2025 FSC-klagomål mail.docx", "A 44235-2025")</f>
+        <v/>
+      </c>
+      <c r="X130">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 44235-2025 tillsynsbegäran.docx", "A 44235-2025")</f>
+        <v/>
+      </c>
+      <c r="Y130">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 44235-2025 tillsynsbegäran mail.docx", "A 44235-2025")</f>
+        <v/>
+      </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49256-2024</t>
+          <t>A 28188-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45595</v>
+        <v>44355</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8561,7 +8626,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8598,14 +8663,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44221-2025</t>
+          <t>A 45196-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45915.6369675926</v>
+        <v>45919</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8618,7 +8683,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8655,14 +8720,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44723-2025</t>
+          <t>A 17963-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45917</v>
+        <v>45419</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8740,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8712,14 +8777,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44235-2025</t>
+          <t>A 13581-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45915</v>
+        <v>45736.58967592593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8797,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8765,38 +8830,18 @@
         <v>0</v>
       </c>
       <c r="R134" s="2" t="inlineStr"/>
-      <c r="T134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/kartor/A 44235-2025 karta.png", "A 44235-2025")</f>
-        <v/>
-      </c>
-      <c r="V134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomål/A 44235-2025 FSC-klagomål.docx", "A 44235-2025")</f>
-        <v/>
-      </c>
-      <c r="W134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/klagomålsmail/A 44235-2025 FSC-klagomål mail.docx", "A 44235-2025")</f>
-        <v/>
-      </c>
-      <c r="X134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsyn/A 44235-2025 tillsynsbegäran.docx", "A 44235-2025")</f>
-        <v/>
-      </c>
-      <c r="Y134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0687/tillsynsmail/A 44235-2025 tillsynsbegäran mail.docx", "A 44235-2025")</f>
-        <v/>
-      </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37901-2025</t>
+          <t>A 11630-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45880</v>
+        <v>44992</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8809,7 +8854,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8846,14 +8891,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44698-2025</t>
+          <t>A 37912-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45917.6000462963</v>
+        <v>45544</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8866,7 +8911,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8903,14 +8948,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17069-2025</t>
+          <t>A 13624-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45754</v>
+        <v>45006</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8923,7 +8968,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8960,14 +9005,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45196-2025</t>
+          <t>A 27786-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45919</v>
+        <v>45475</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8980,7 +9025,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9017,14 +9062,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 46075-2025</t>
+          <t>A 19695-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45924.50216435185</v>
+        <v>45770</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9037,7 +9082,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9074,14 +9119,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 46337-2025</t>
+          <t>A 20414-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45925.46216435185</v>
+        <v>45775.46158564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,13 +9138,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9136,14 +9176,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47902-2022</t>
+          <t>A 28997-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44855</v>
+        <v>45104</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9156,7 +9196,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9193,14 +9233,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59171-2024</t>
+          <t>A 46075-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45637.49440972223</v>
+        <v>45924.50216435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9213,7 +9253,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9250,14 +9290,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46333-2025</t>
+          <t>A 54750-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45925.45918981481</v>
+        <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9269,13 +9309,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9312,14 +9347,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46324-2025</t>
+          <t>A 5213-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45925.45210648148</v>
+        <v>45330.6340625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9372,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9.800000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9409,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46330-2025</t>
+          <t>A 46337-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45925.45548611111</v>
+        <v>45925.46216435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9399,7 +9434,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9436,14 +9471,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47477-2025</t>
+          <t>A 26855-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45930.67966435185</v>
+        <v>45810</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9455,8 +9490,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9493,14 +9533,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 32871-2021</t>
+          <t>A 46333-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44375</v>
+        <v>45925.45918981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9512,8 +9552,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9550,14 +9595,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7583-2023</t>
+          <t>A 46324-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44972.40060185185</v>
+        <v>45925.45210648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9569,8 +9614,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9607,14 +9657,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47753-2025</t>
+          <t>A 46330-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45931.66369212963</v>
+        <v>45925.45548611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9632,7 +9682,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9669,14 +9719,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 49003-2025</t>
+          <t>A 17617-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45932</v>
+        <v>45036.63990740741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9689,7 +9739,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9726,14 +9776,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8978-2021</t>
+          <t>A 1516-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44249.47738425926</v>
+        <v>45306</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9745,13 +9795,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9788,14 +9833,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48112-2025</t>
+          <t>A 40098-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45932</v>
+        <v>44418.58430555555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9808,7 +9853,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9845,14 +9890,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16153-2023</t>
+          <t>A 9977-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45027</v>
+        <v>44621</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9864,13 +9909,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>14.5</v>
+        <v>4.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9907,14 +9947,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47760-2025</t>
+          <t>A 47756-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45931.67399305556</v>
+        <v>45931.66736111111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9932,7 +9972,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9969,14 +10009,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47756-2025</t>
+          <t>A 12654-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45931.66736111111</v>
+        <v>45379</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9988,13 +10028,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10031,14 +10066,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48507-2021</t>
+          <t>A 47477-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44452.42856481481</v>
+        <v>45930.67966435185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10050,13 +10085,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10093,14 +10123,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 19332-2025</t>
+          <t>A 47760-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45769.58644675926</v>
+        <v>45931.67399305556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10112,8 +10142,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10150,14 +10185,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9058-2021</t>
+          <t>A 47753-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44249</v>
+        <v>45931.66369212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10175,7 +10210,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10212,14 +10247,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 24708-2023</t>
+          <t>A 28139-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45084.54755787037</v>
+        <v>45099.48325231481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10232,7 +10267,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10269,14 +10304,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 49224-2025</t>
+          <t>A 3121-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45938.46695601852</v>
+        <v>45678.72246527778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,8 +10323,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10326,14 +10366,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33494-2025</t>
+          <t>A 48112-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45841.50859953704</v>
+        <v>45932</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10346,7 +10386,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10383,14 +10423,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49231-2025</t>
+          <t>A 30144-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45938.47315972222</v>
+        <v>45489.59614583333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,8 +10442,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10440,14 +10485,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 33485-2025</t>
+          <t>A 30145-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45841.50381944444</v>
+        <v>45489</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,8 +10504,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10497,14 +10547,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 33497-2025</t>
+          <t>A 49003-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45841.50966435186</v>
+        <v>45932</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10554,14 +10604,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9750-2025</t>
+          <t>A 70037-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45716.46211805556</v>
+        <v>44533</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10574,7 +10624,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10611,14 +10661,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49118-2025</t>
+          <t>A 33201-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45937</v>
+        <v>45840.60674768518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10631,7 +10681,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10668,14 +10718,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20197-2025</t>
+          <t>A 48751-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45772.6108912037</v>
+        <v>44452.62667824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,13 +10737,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10730,14 +10775,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49844-2025</t>
+          <t>A 59171-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45940.47883101852</v>
+        <v>45637.49440972223</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10749,13 +10794,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10792,14 +10832,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18728-2024</t>
+          <t>A 21876-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45426.47565972222</v>
+        <v>45068</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10812,7 +10852,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10849,14 +10889,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49610-2025</t>
+          <t>A 33203-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45939.57327546296</v>
+        <v>45840.60864583333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10869,7 +10909,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10906,14 +10946,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 39652-2021</t>
+          <t>A 49118-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44417</v>
+        <v>45937</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10925,13 +10965,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10968,14 +11003,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50749-2025</t>
+          <t>A 33485-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45946.389375</v>
+        <v>45841.50381944444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10988,7 +11023,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11025,14 +11060,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 50621-2025</t>
+          <t>A 33497-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45945.63202546296</v>
+        <v>45841.50966435186</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11045,7 +11080,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11082,14 +11117,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 50686-2025</t>
+          <t>A 19323-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45945.82383101852</v>
+        <v>45769.58104166666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11102,7 +11137,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11139,14 +11174,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 50596-2025</t>
+          <t>A 20278-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45945.60892361111</v>
+        <v>45774.36863425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11159,7 +11194,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11196,14 +11231,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 50601-2025</t>
+          <t>A 49224-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45945</v>
+        <v>45938.46695601852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11216,7 +11251,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11253,14 +11288,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61393-2023</t>
+          <t>A 49231-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45261</v>
+        <v>45938.47315972222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11273,7 +11308,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11310,14 +11345,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60184-2024</t>
+          <t>A 49610-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45639</v>
+        <v>45939.57327546296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11330,7 +11365,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11367,14 +11402,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 40564-2024</t>
+          <t>A 33494-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45555.66824074074</v>
+        <v>45841.50859953704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11387,7 +11422,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11424,14 +11459,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 28139-2023</t>
+          <t>A 20663-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45099.48325231481</v>
+        <v>44700.65034722222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11443,8 +11478,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11481,14 +11521,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61702-2022</t>
+          <t>A 33006-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44917.41598379629</v>
+        <v>45840.35839120371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11501,7 +11541,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11538,14 +11578,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52174-2025</t>
+          <t>A 11606-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45953.37413194445</v>
+        <v>44992</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11558,7 +11598,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11595,14 +11635,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52219-2025</t>
+          <t>A 8999-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45953.43871527778</v>
+        <v>45712</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11615,7 +11655,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11652,14 +11692,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 28997-2023</t>
+          <t>A 24967-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11671,8 +11711,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11709,14 +11754,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52188-2025</t>
+          <t>A 49844-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45953.38699074074</v>
+        <v>45940.47883101852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,8 +11773,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11766,14 +11816,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52497-2025</t>
+          <t>A 50596-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45954.4930787037</v>
+        <v>45945.60892361111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11786,7 +11836,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11823,14 +11873,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52515-2025</t>
+          <t>A 9058-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45954.51231481481</v>
+        <v>44249</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,8 +11892,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11880,14 +11935,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52714-2024</t>
+          <t>A 21012-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45610.43283564815</v>
+        <v>44701</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11900,7 +11955,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11937,14 +11992,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53447-2025</t>
+          <t>A 37221-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45959.65025462963</v>
+        <v>45539.85185185185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,13 +12011,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11999,14 +12049,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 54408-2025</t>
+          <t>A 37160-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45964</v>
+        <v>45154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12019,7 +12069,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12056,14 +12106,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 16587-2024</t>
+          <t>A 37949-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45408.48957175926</v>
+        <v>45159</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12076,7 +12126,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12113,14 +12163,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54351-2025</t>
+          <t>A 50601-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45965.37271990741</v>
+        <v>45945</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12133,7 +12183,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12170,14 +12220,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 19328-2025</t>
+          <t>A 50621-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45769.584375</v>
+        <v>45945.63202546296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,14 +12277,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 54992-2025</t>
+          <t>A 50686-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45967</v>
+        <v>45945.82383101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12247,7 +12297,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12284,14 +12334,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 30138-2024</t>
+          <t>A 9800-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45489.57371527778</v>
+        <v>45715</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12303,13 +12353,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12346,14 +12391,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5898-2024</t>
+          <t>A 2365-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45335</v>
+        <v>45673.71967592592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12365,13 +12410,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12408,14 +12448,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 56148-2025</t>
+          <t>A 17571-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45974.34738425926</v>
+        <v>45757.64601851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12428,7 +12468,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12465,14 +12505,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 7940-2023</t>
+          <t>A 7583-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44973.65998842593</v>
+        <v>44972.40060185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12484,13 +12524,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12527,14 +12562,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 27786-2024</t>
+          <t>A 37901-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45475</v>
+        <v>45880</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12582,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12584,14 +12619,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 56135-2025</t>
+          <t>A 22404-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45974</v>
+        <v>45070</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12639,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12641,14 +12676,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 14923-2024</t>
+          <t>A 50749-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45398.61876157407</v>
+        <v>45946.389375</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12696,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12698,14 +12733,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 37949-2023</t>
+          <t>A 23984-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45159</v>
+        <v>45078</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12753,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12755,14 +12790,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 10453-2025</t>
+          <t>A 6201-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45720.70534722223</v>
+        <v>45698.47854166666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12810,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12812,14 +12847,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 56810-2025</t>
+          <t>A 60184-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45978.45473379629</v>
+        <v>45639</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12867,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12869,14 +12904,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 41496-2023</t>
+          <t>A 17950-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45175.47060185186</v>
+        <v>44301</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12924,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12926,14 +12961,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 59640-2025</t>
+          <t>A 52174-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45992</v>
+        <v>45953.37413194445</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12981,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12983,14 +13018,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 37753-2024</t>
+          <t>A 52219-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45541</v>
+        <v>45953.43871527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13038,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13040,14 +13075,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 12654-2024</t>
+          <t>A 52188-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45379</v>
+        <v>45953.38699074074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13097,14 +13132,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 57648-2025</t>
+          <t>A 52515-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45981</v>
+        <v>45954.51231481481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13152,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>7.7</v>
+        <v>2.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13154,14 +13189,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 57957-2025</t>
+          <t>A 22671-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45982</v>
+        <v>45789.49032407408</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13209,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13211,14 +13246,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 988-2026</t>
+          <t>A 52497-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46029</v>
+        <v>45954.4930787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13266,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13268,14 +13303,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 73249-2021</t>
+          <t>A 5066-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44550.71657407407</v>
+        <v>45691</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13323,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13325,14 +13360,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 48315-2023</t>
+          <t>A 8351-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45201</v>
+        <v>44977</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13380,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13382,14 +13417,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 59272-2025</t>
+          <t>A 14825-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45988.68699074074</v>
+        <v>45397</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13437,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>9.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13439,14 +13474,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56875-2024</t>
+          <t>A 17069-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45628.56390046296</v>
+        <v>45754</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13494,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13496,14 +13531,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 23984-2023</t>
+          <t>A 6919-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45078</v>
+        <v>44967</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13551,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13553,14 +13588,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 23993-2023</t>
+          <t>A 7333-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45078</v>
+        <v>45345</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13572,8 +13607,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13610,14 +13650,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 8874-2022</t>
+          <t>A 2379-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44614</v>
+        <v>44942</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13629,8 +13669,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13667,14 +13712,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 1613-2022</t>
+          <t>A 53447-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44573</v>
+        <v>45959.65025462963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13737,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13729,14 +13774,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 7333-2024</t>
+          <t>A 32871-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45345</v>
+        <v>44375</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13748,13 +13793,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13791,14 +13831,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 16150-2023</t>
+          <t>A 40442-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45027.65725694445</v>
+        <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13810,13 +13850,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>12.3</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13853,14 +13888,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60147-2025</t>
+          <t>A 54351-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45994.38554398148</v>
+        <v>45965.37271990741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13908,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13910,14 +13945,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 2449-2026</t>
+          <t>A 45787-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46037.33811342593</v>
+        <v>45195</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13965,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13967,14 +14002,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 2476-2026</t>
+          <t>A 57983-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46037.38101851852</v>
+        <v>45631.61699074074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +14022,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14024,14 +14059,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 12214-2022</t>
+          <t>A 54408-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44637</v>
+        <v>45964</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14041,11 +14076,6 @@
       <c r="E225" t="inlineStr">
         <is>
           <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -14086,14 +14116,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19695-2025</t>
+          <t>A 54992-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45770</v>
+        <v>45967</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14136,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14143,14 +14173,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 9705-2022</t>
+          <t>A 17964-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44617.69141203703</v>
+        <v>45419</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14193,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14200,14 +14230,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 46854-2024</t>
+          <t>A 1714-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45583.61962962963</v>
+        <v>45307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14219,8 +14249,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14257,14 +14292,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 3682-2026</t>
+          <t>A 56148-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46043</v>
+        <v>45974.34738425926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14312,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14314,14 +14349,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 4153-2025</t>
+          <t>A 56135-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45685</v>
+        <v>45974</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14369,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14371,14 +14406,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 21012-2022</t>
+          <t>A 59640-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44701</v>
+        <v>45992</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14426,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14428,14 +14463,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4233-2025</t>
+          <t>A 36215-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45685</v>
+        <v>44803.49041666667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14483,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14485,14 +14520,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 62867-2025</t>
+          <t>A 56810-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46008</v>
+        <v>45978.45473379629</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14540,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14542,14 +14577,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 23031-2022</t>
+          <t>A 57648-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44719</v>
+        <v>45981</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,13 +14596,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14604,14 +14634,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2768-2024</t>
+          <t>A 8348-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45314</v>
+        <v>44977.31280092592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14654,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14661,14 +14691,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 20663-2022</t>
+          <t>A 57957-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44700.65034722222</v>
+        <v>45982</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,13 +14710,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14723,14 +14748,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 5995-2024</t>
+          <t>A 61017-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45336.58576388889</v>
+        <v>45644</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14743,7 +14768,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.8</v>
+        <v>12.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14780,14 +14805,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 9800-2025</t>
+          <t>A 4233-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45715</v>
+        <v>45685</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14800,7 +14825,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14837,14 +14862,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 26449-2022</t>
+          <t>A 16153-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44738</v>
+        <v>45027</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14856,8 +14881,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>2.9</v>
+        <v>14.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14894,14 +14924,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 1714-2024</t>
+          <t>A 59272-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45307</v>
+        <v>45988.68699074074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14913,13 +14943,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14956,14 +14981,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 55973-2025</t>
+          <t>A 988-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45973</v>
+        <v>46029</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14976,7 +15001,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15013,14 +15038,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 3458-2026</t>
+          <t>A 14286-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46042</v>
+        <v>45393</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15033,7 +15058,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15070,14 +15095,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 19494-2022</t>
+          <t>A 29130-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44693.49467592593</v>
+        <v>45105</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15090,7 +15115,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15127,14 +15152,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 6396-2026</t>
+          <t>A 4692-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46055.655</v>
+        <v>44953</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15147,7 +15172,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15184,14 +15209,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 48751-2021</t>
+          <t>A 19418-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44452.62667824074</v>
+        <v>45769.72369212963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15203,8 +15228,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15241,14 +15271,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 63620-2025</t>
+          <t>A 2449-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46014.35241898148</v>
+        <v>46037.33811342593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15261,7 +15291,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15298,14 +15328,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 34518-2023</t>
+          <t>A 2476-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45140.38641203703</v>
+        <v>46037.38101851852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15318,7 +15348,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15355,14 +15385,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 6110-2026</t>
+          <t>A 60147-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46053.37464120371</v>
+        <v>45994.38554398148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15375,7 +15405,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15412,14 +15442,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 45575-2022</t>
+          <t>A 52714-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44845</v>
+        <v>45610.43283564815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15432,7 +15462,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15469,14 +15499,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 50634-2023</t>
+          <t>A 18173-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45217</v>
+        <v>45040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15489,7 +15519,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15526,14 +15556,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 39722-2024</t>
+          <t>A 5995-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45552.61659722222</v>
+        <v>45336.58576388889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15546,7 +15576,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15583,14 +15613,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 19418-2025</t>
+          <t>A 73249-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45769.72369212963</v>
+        <v>44550.71657407407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15602,13 +15632,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15645,14 +15670,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 3711-2024</t>
+          <t>A 3682-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45321</v>
+        <v>46043</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15665,7 +15690,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15702,14 +15727,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 11606-2023</t>
+          <t>A 9229-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44992</v>
+        <v>45713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15759,14 +15784,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 49432-2024</t>
+          <t>A 3711-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45595</v>
+        <v>45321</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15779,7 +15804,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15816,14 +15841,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 50202-2023</t>
+          <t>A 14920-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45215</v>
+        <v>45398.6153587963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15836,7 +15861,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15873,14 +15898,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7578-2026</t>
+          <t>A 4702-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46061.51032407407</v>
+        <v>44953</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15893,7 +15918,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15930,14 +15955,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 6644-2026</t>
+          <t>A 20197-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46056.54129629629</v>
+        <v>45772.6108912037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15949,8 +15974,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15987,14 +16017,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 39600-2024</t>
+          <t>A 36105-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45552.37902777778</v>
+        <v>45533.890625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16007,7 +16037,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16044,14 +16074,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 9977-2022</t>
+          <t>A 56875-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44621</v>
+        <v>45628.56390046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16064,7 +16094,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16101,14 +16131,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 29130-2023</t>
+          <t>A 49958-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45105</v>
+        <v>44865.37258101852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16121,7 +16151,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16158,14 +16188,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 17964-2024</t>
+          <t>A 57130-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45419</v>
+        <v>44895.55646990741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16178,7 +16208,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16215,14 +16245,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 32294-2021</t>
+          <t>A 17567-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44371</v>
+        <v>45757.64240740741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16234,13 +16264,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16277,14 +16302,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 12885-2023</t>
+          <t>A 62867-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45001</v>
+        <v>46008</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16297,7 +16322,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16334,14 +16359,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 14342-2021</t>
+          <t>A 18073-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44278</v>
+        <v>45420</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16354,7 +16379,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16391,14 +16416,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 12474-2024</t>
+          <t>A 3458-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45379.51564814815</v>
+        <v>46042</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16411,7 +16436,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16448,14 +16473,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 12476-2024</t>
+          <t>A 23993-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45379.51759259259</v>
+        <v>45078</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16468,7 +16493,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16505,14 +16530,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 6043-2023</t>
+          <t>A 6110-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44964</v>
+        <v>46053.37464120371</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16525,7 +16550,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16562,14 +16587,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 17950-2021</t>
+          <t>A 6396-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44301</v>
+        <v>46055.655</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16607,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16619,14 +16644,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 3121-2025</t>
+          <t>A 7940-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45678.72246527778</v>
+        <v>44973.65998842593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16640,11 +16665,11 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16681,14 +16706,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 4692-2023</t>
+          <t>A 55973-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44953</v>
+        <v>45973</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16701,7 +16726,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16738,14 +16763,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 19771-2023</t>
+          <t>A 63620-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45051.6136574074</v>
+        <v>46014.35241898148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16758,7 +16783,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16795,14 +16820,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 31694-2024</t>
+          <t>A 7950-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45508</v>
+        <v>44973.67125</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16814,8 +16839,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16852,14 +16882,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 20549-2023</t>
+          <t>A 46127-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45057.59825231481</v>
+        <v>45581.42474537037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16872,7 +16902,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16909,14 +16939,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 17617-2023</t>
+          <t>A 59017-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45036.63990740741</v>
+        <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16929,7 +16959,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16966,14 +16996,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 73785-2021</t>
+          <t>A 40212-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44552</v>
+        <v>44820.63084490741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16985,13 +17015,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>14.9</v>
+        <v>1.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17028,14 +17053,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8348-2023</t>
+          <t>A 54703-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44977.31280092592</v>
+        <v>44881</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17048,7 +17073,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17085,14 +17110,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 1516-2024</t>
+          <t>A 6644-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45306</v>
+        <v>46056.54129629629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17105,7 +17130,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17142,14 +17167,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 4668-2023</t>
+          <t>A 1613-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44957.42422453704</v>
+        <v>44573</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17167,7 +17192,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17204,14 +17229,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 6201-2025</t>
+          <t>A 7578-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45698.47854166666</v>
+        <v>46061.51032407407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17224,7 +17249,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17261,14 +17286,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 21876-2023</t>
+          <t>A 8874-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45068</v>
+        <v>44614</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17281,7 +17306,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17318,14 +17343,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 11630-2023</t>
+          <t>A 35691-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44992</v>
+        <v>44386</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17338,7 +17363,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.8</v>
+        <v>8.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17375,14 +17400,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 40442-2022</t>
+          <t>A 35696-2021</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44823</v>
+        <v>44386.48453703704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17395,7 +17420,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17432,14 +17457,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 17567-2025</t>
+          <t>A 18179-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45757.64240740741</v>
+        <v>45420.64155092592</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17452,7 +17477,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17489,14 +17514,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 17571-2025</t>
+          <t>A 9705-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45757.64601851852</v>
+        <v>44617.69141203703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17509,7 +17534,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17546,14 +17571,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 36105-2024</t>
+          <t>A 3421-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45533.890625</v>
+        <v>45319.82532407407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17566,7 +17591,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17603,14 +17628,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 2375-2023</t>
+          <t>A 41496-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44942</v>
+        <v>45175.47060185186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17622,13 +17647,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G287" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17665,14 +17685,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 33508-2021</t>
+          <t>A 20558-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44377</v>
+        <v>45057.62520833333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17684,13 +17704,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17727,14 +17742,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 9229-2025</t>
+          <t>A 57038-2021</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45713</v>
+        <v>44482.51827546296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17747,7 +17762,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17784,14 +17799,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 8999-2025</t>
+          <t>A 48315-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45712</v>
+        <v>45201</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17804,7 +17819,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17841,14 +17856,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 2379-2023</t>
+          <t>A 644-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44942</v>
+        <v>44930.64086805555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,13 +17875,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17903,14 +17913,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 17578-2025</t>
+          <t>A 39600-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45757</v>
+        <v>45552.37902777778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17923,7 +17933,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17960,14 +17970,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 57983-2024</t>
+          <t>A 4153-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45631.61699074074</v>
+        <v>45685</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17980,7 +17990,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18017,14 +18027,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 45787-2023</t>
+          <t>A 17280-2021</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45195</v>
+        <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18037,7 +18047,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>9.300000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18074,14 +18084,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 23033-2022</t>
+          <t>A 16587-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44719</v>
+        <v>45408.48957175926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18093,13 +18103,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G295" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18136,14 +18141,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 20810-2025</t>
+          <t>A 19494-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45776.66296296296</v>
+        <v>44693.49467592593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18155,13 +18160,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G296" t="n">
-        <v>13.8</v>
+        <v>4.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18198,14 +18198,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 20625-2025</t>
+          <t>A 5898-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45776</v>
+        <v>45335</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18217,8 +18217,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G297" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18255,14 +18260,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 20199-2025</t>
+          <t>A 34518-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45772.61246527778</v>
+        <v>45140.38641203703</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18274,13 +18279,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18317,14 +18317,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 21459-2025</t>
+          <t>A 31694-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45782</v>
+        <v>45508</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18374,14 +18374,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 21351-2025</t>
+          <t>A 2768-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45782</v>
+        <v>45314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>11.5</v>
+        <v>4.4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18431,14 +18431,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 37703-2023</t>
+          <t>A 48507-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45159</v>
+        <v>44452.42856481481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18450,8 +18450,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18488,14 +18493,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 30647-2024</t>
+          <t>A 18728-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45495.59086805556</v>
+        <v>45426.47565972222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18508,7 +18513,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18545,14 +18550,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 22430-2025</t>
+          <t>A 39722-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45786.57684027778</v>
+        <v>45552.61659722222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18565,7 +18570,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18602,14 +18607,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 39976-2024</t>
+          <t>A 12070-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45553</v>
+        <v>45377.51591435185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18622,7 +18627,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>4.4</v>
+        <v>12.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18659,14 +18664,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 22620-2025</t>
+          <t>A 36998-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45789.43079861111</v>
+        <v>45539</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18679,7 +18684,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18716,14 +18721,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 20990-2024</t>
+          <t>A 19771-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45439</v>
+        <v>45051.6136574074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18736,7 +18741,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18773,14 +18778,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 62578-2023</t>
+          <t>A 17578-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45270.59327546296</v>
+        <v>45757</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18793,7 +18798,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18830,14 +18835,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 33213-2023</t>
+          <t>A 18496-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45114</v>
+        <v>45425</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18850,7 +18855,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18887,14 +18892,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 39648-2024</t>
+          <t>A 39652-2021</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45552</v>
+        <v>44417</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18906,8 +18911,13 @@
           <t>TRANÅS</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18944,14 +18954,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 23705-2025</t>
+          <t>A 21319-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45793.36877314815</v>
+        <v>45062</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18963,13 +18973,8 @@
           <t>TRANÅS</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>13.1</v>
+        <v>0.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19006,14 +19011,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 17077-2025</t>
+          <t>A 61393-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45754</v>
+        <v>45261</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19026,7 +19031,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19063,14 +19068,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 37912-2024</t>
+          <t>A 40564-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45544</v>
+        <v>45555.66824074074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19083,7 +19088,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19120,14 +19125,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 13581-2025</t>
+          <t>A 61702-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45736.58967592593</v>
+        <v>44917.41598379629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19140,7 +19145,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19174,17 +19179,17 @@
       </c>
       <c r="R313" s="2" t="inlineStr"/>
     </row>
-    <row r="314" ht="15" customHeight="1">
+    <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 20414-2025</t>
+          <t>A 49432-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45775.46158564815</v>
+        <v>45595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19197,7 +19202,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19230,68 +19235,6 @@
         <v>0</v>
       </c>
       <c r="R314" s="2" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>A 26855-2025</t>
-        </is>
-      </c>
-      <c r="B315" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C315" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>TRANÅS</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G315" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="n">
-        <v>0</v>
-      </c>
-      <c r="K315" t="n">
-        <v>0</v>
-      </c>
-      <c r="L315" t="n">
-        <v>0</v>
-      </c>
-      <c r="M315" t="n">
-        <v>0</v>
-      </c>
-      <c r="N315" t="n">
-        <v>0</v>
-      </c>
-      <c r="O315" t="n">
-        <v>0</v>
-      </c>
-      <c r="P315" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q315" t="n">
-        <v>0</v>
-      </c>
-      <c r="R315" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
